--- a/data/542/KOSTAT/old/Quarterly_KOS.xlsx
+++ b/data/542/KOSTAT/old/Quarterly_KOS.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>By the item of monthly income &amp; expenditure of household</t>
   </si>
@@ -51,6 +51,9 @@
     <t>2021 2/4</t>
   </si>
   <si>
+    <t>2021 3/4</t>
+  </si>
+  <si>
     <t>Income</t>
   </si>
   <si>
@@ -84,7 +87,7 @@
     <t>○ Search Period</t>
   </si>
   <si>
-    <t>[Quarterly] 201901~202102  </t>
+    <t>[Quarterly] 201901~202103  </t>
   </si>
   <si>
     <t>○ Source</t>
@@ -96,7 +99,7 @@
     <t>○ Download Date</t>
   </si>
   <si>
-    <t>2021.10.07 15:15</t>
+    <t>2021.12.28 13:39</t>
   </si>
   <si>
     <t>○ Table URL</t>
@@ -266,6 +269,7 @@
     <col min="10" max="10" width="25.78125" customWidth="true"/>
     <col min="11" max="11" width="25.78125" customWidth="true"/>
     <col min="12" max="12" width="25.78125" customWidth="true"/>
+    <col min="13" max="13" width="25.78125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" ht="20.0" customHeight="true">
@@ -305,13 +309,16 @@
       <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" ht="20.0" customHeight="true">
       <c r="A2" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="n">
         <v>5040778.545</v>
@@ -343,13 +350,16 @@
       <c r="L2" s="6" t="n">
         <v>4907625.865</v>
       </c>
+      <c r="M2" s="6" t="n">
+        <v>5343616.863</v>
+      </c>
     </row>
     <row r="3" ht="20.0" customHeight="true">
       <c r="A3" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="n">
         <v>5796210.685</v>
@@ -381,13 +391,16 @@
       <c r="L3" s="6" t="n">
         <v>5489129.804</v>
       </c>
+      <c r="M3" s="6" t="n">
+        <v>5996328.283</v>
+      </c>
     </row>
     <row r="4" ht="20.0" customHeight="true">
       <c r="A4" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>4022461.31</v>
@@ -419,13 +432,16 @@
       <c r="L4" s="6" t="n">
         <v>3809431.509</v>
       </c>
+      <c r="M4" s="6" t="n">
+        <v>4006116.523</v>
+      </c>
     </row>
     <row r="5" ht="20.0" customHeight="true">
       <c r="A5" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="6" t="n">
         <v>4417037.904</v>
@@ -457,13 +473,16 @@
       <c r="L5" s="6" t="n">
         <v>4226010.201</v>
       </c>
+      <c r="M5" s="6" t="n">
+        <v>4430529.994</v>
+      </c>
     </row>
     <row r="6" ht="20.0" customHeight="true">
       <c r="A6" s="13" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="6" t="n">
         <v>2969418.372</v>
@@ -495,13 +514,16 @@
       <c r="L6" s="6" t="n">
         <v>2845870.169</v>
       </c>
+      <c r="M6" s="6" t="n">
+        <v>2886404.231</v>
+      </c>
     </row>
     <row r="7" ht="20.0" customHeight="true">
       <c r="A7" s="16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="6" t="n">
         <v>3168413.953</v>
@@ -532,6 +554,9 @@
       </c>
       <c r="L7" s="6" t="n">
         <v>3070254.628</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>3119217.912</v>
       </c>
     </row>
   </sheetData>
@@ -549,58 +574,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
